--- a/hiv-southafrica/hiv_southafrica_progbook_reconciled.xlsx
+++ b/hiv-southafrica/hiv_southafrica_progbook_reconciled.xlsx
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>26</v>
@@ -890,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>26</v>
@@ -958,7 +958,7 @@
         <v>26</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>26</v>
@@ -1026,7 +1026,7 @@
         <v>26</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>26</v>
@@ -1094,7 +1094,7 @@
         <v>25</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>26</v>
@@ -1162,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>26</v>
@@ -1230,7 +1230,7 @@
         <v>25</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>26</v>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6083,7 +6083,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="5">
-        <v>51466712.0427018</v>
+        <v>53354825.28</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6099,7 +6099,7 @@
         <v>54</v>
       </c>
       <c r="F3" s="5">
-        <v>3.14928</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6143,7 +6143,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="5">
-        <v>11913590.75062542</v>
+        <v>296415.696</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6178,7 +6178,7 @@
         <v>54</v>
       </c>
       <c r="F9" s="5">
-        <v>1888861.915658325</v>
+        <v>1958156.64</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>54</v>
       </c>
       <c r="F10" s="5">
-        <v>3.897234</v>
+        <v>16.05405405405406</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6219,11 +6219,13 @@
         <v>60</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
@@ -6238,7 +6240,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="5">
-        <v>317990.2214913005</v>
+        <v>121972.72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6257,7 +6259,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6273,7 +6275,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="5">
-        <v>1868762.919848243</v>
+        <v>1937319.28</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6289,7 +6291,7 @@
         <v>54</v>
       </c>
       <c r="F17" s="5">
-        <v>3.096792</v>
+        <v>52.44444444444444</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6333,7 +6335,7 @@
         <v>54</v>
       </c>
       <c r="F20" s="5">
-        <v>395924.3474254751</v>
+        <v>36940.41</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6352,7 +6354,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6368,7 +6370,7 @@
         <v>54</v>
       </c>
       <c r="F23" s="5">
-        <v>1379584.87453404</v>
+        <v>1430194.92</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6384,7 +6386,7 @@
         <v>54</v>
       </c>
       <c r="F24" s="5">
-        <v>3.031182</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6428,7 +6430,7 @@
         <v>54</v>
       </c>
       <c r="F27" s="5">
-        <v>298611.4447043377</v>
+        <v>30956.6</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6447,7 +6449,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6463,7 +6465,7 @@
         <v>54</v>
       </c>
       <c r="F30" s="5">
-        <v>646834.4398803374</v>
+        <v>670562.78</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6479,7 +6481,7 @@
         <v>54</v>
       </c>
       <c r="F31" s="5">
-        <v>4.159674000000001</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6523,7 +6525,7 @@
         <v>54</v>
       </c>
       <c r="F34" s="5">
-        <v>102024.3596025769</v>
+        <v>21153.4</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6542,7 +6544,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6558,7 +6560,7 @@
         <v>54</v>
       </c>
       <c r="F37" s="5">
-        <v>691576.7700351713</v>
+        <v>716945.3199999999</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6574,7 +6576,7 @@
         <v>54</v>
       </c>
       <c r="F38" s="5">
-        <v>4.681638</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6618,7 +6620,7 @@
         <v>54</v>
       </c>
       <c r="F41" s="5">
-        <v>102304.2559223626</v>
+        <v>2757.482</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6637,7 +6639,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6653,7 +6655,7 @@
         <v>54</v>
       </c>
       <c r="F44" s="5">
-        <v>817331.4424900238</v>
+        <v>847315.2599999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6669,7 +6671,7 @@
         <v>54</v>
       </c>
       <c r="F45" s="5">
-        <v>2.20887</v>
+        <v>41.05691056910569</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6713,7 +6715,7 @@
         <v>54</v>
       </c>
       <c r="F48" s="5">
-        <v>269746.3506567735</v>
+        <v>20637.5796</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -6732,7 +6734,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -6748,7 +6750,7 @@
         <v>54</v>
       </c>
       <c r="F51" s="5">
-        <v>838835.409131835</v>
+        <v>3995486.48</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -6764,7 +6766,7 @@
         <v>54</v>
       </c>
       <c r="F52" s="5">
-        <v>3.418281000000001</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -6808,7 +6810,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5">
-        <v>161004.8769926747</v>
+        <v>766888</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -6827,7 +6829,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -6843,7 +6845,7 @@
         <v>54</v>
       </c>
       <c r="F58" s="5">
-        <v>439693.5646578668</v>
+        <v>350467.816</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -6859,7 +6861,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="5">
-        <v>7.190552250000001</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -6903,7 +6905,7 @@
         <v>54</v>
       </c>
       <c r="F62" s="5">
-        <v>48106.51692099199</v>
+        <v>38344.4</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -6922,7 +6924,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -6938,7 +6940,7 @@
         <v>54</v>
       </c>
       <c r="F65" s="5">
-        <v>788149.1363523304</v>
+        <v>231216.732</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -6954,7 +6956,7 @@
         <v>54</v>
       </c>
       <c r="F66" s="5">
-        <v>9.497250000000003</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -6998,7 +7000,7 @@
         <v>54</v>
       </c>
       <c r="F69" s="5">
-        <v>78422.79963704781</v>
+        <v>23006.64</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7017,7 +7019,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7033,7 +7035,7 @@
         <v>54</v>
       </c>
       <c r="F72" s="5">
-        <v>275852.1594205957</v>
+        <v>16104.648</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7049,7 +7051,7 @@
         <v>54</v>
       </c>
       <c r="F73" s="5">
-        <v>0.7654500000000001</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7093,7 +7095,7 @@
         <v>54</v>
       </c>
       <c r="F76" s="5">
-        <v>262716.3423053293</v>
+        <v>15337.76</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7112,7 +7114,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7128,7 +7130,7 @@
         <v>54</v>
       </c>
       <c r="F79" s="5">
-        <v>1425168.250742495</v>
+        <v>1558316.416</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7144,7 +7146,7 @@
         <v>54</v>
       </c>
       <c r="F80" s="5">
-        <v>3.38074</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7188,7 +7190,7 @@
         <v>54</v>
       </c>
       <c r="F83" s="5">
-        <v>561089.8624970453</v>
+        <v>613510.4</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -7207,7 +7209,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7223,7 +7225,7 @@
         <v>54</v>
       </c>
       <c r="F86" s="5">
-        <v>143050.3094718424</v>
+        <v>376158.564</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7239,7 +7241,7 @@
         <v>54</v>
       </c>
       <c r="F87" s="5">
-        <v>4.787607000000001</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -7283,7 +7285,7 @@
         <v>54</v>
       </c>
       <c r="F90" s="5">
-        <v>43746.27200973774</v>
+        <v>115033.2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -7302,7 +7304,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7318,7 +7320,7 @@
         <v>54</v>
       </c>
       <c r="F93" s="5">
-        <v>71526.41857124903</v>
+        <v>97778.22</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -7334,7 +7336,7 @@
         <v>54</v>
       </c>
       <c r="F94" s="5">
-        <v>3.733455</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -7378,7 +7380,7 @@
         <v>54</v>
       </c>
       <c r="F97" s="5">
-        <v>28049.57591029374</v>
+        <v>38344.4</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -7397,7 +7399,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -7413,7 +7415,7 @@
         <v>54</v>
       </c>
       <c r="F100" s="5">
-        <v>1377542.339705266</v>
+        <v>910141.5069</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -7429,7 +7431,7 @@
         <v>54</v>
       </c>
       <c r="F101" s="5">
-        <v>6.109289999999999</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -7473,7 +7475,7 @@
         <v>54</v>
       </c>
       <c r="F104" s="5">
-        <v>300118.156798533</v>
+        <v>198287.91</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -7492,7 +7494,7 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -7508,7 +7510,7 @@
         <v>54</v>
       </c>
       <c r="F107" s="5">
-        <v>9973.30200184814</v>
+        <v>449.4525960000001</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -7568,7 +7570,7 @@
         <v>54</v>
       </c>
       <c r="F111" s="5">
-        <v>58666482.36381259</v>
+        <v>2643838.8</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -7587,7 +7589,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -7603,7 +7605,7 @@
         <v>54</v>
       </c>
       <c r="F114" s="5">
-        <v>813995.8545946355</v>
+        <v>825758.9852</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -7619,7 +7621,7 @@
         <v>54</v>
       </c>
       <c r="F115" s="5">
-        <v>6.147657</v>
+        <v>9.369999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -7663,7 +7665,7 @@
         <v>54</v>
       </c>
       <c r="F118" s="5">
-        <v>86872.55652023859</v>
+        <v>88127.96000000001</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -7682,7 +7684,7 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -7698,7 +7700,7 @@
         <v>54</v>
       </c>
       <c r="F121" s="5">
-        <v>1287519.382518758</v>
+        <v>1325444.5184</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -7714,7 +7716,7 @@
         <v>54</v>
       </c>
       <c r="F122" s="5">
-        <v>20.01824</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -7758,7 +7760,7 @@
         <v>54</v>
       </c>
       <c r="F125" s="5">
-        <v>85606.34192278974</v>
+        <v>88127.96000000001</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -7777,7 +7779,7 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -7793,7 +7795,7 @@
         <v>54</v>
       </c>
       <c r="F128" s="5">
-        <v>154503.8957237208</v>
+        <v>-91212.43859999999</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -7809,7 +7811,7 @@
         <v>54</v>
       </c>
       <c r="F129" s="5">
-        <v>3.030687</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -7853,7 +7855,7 @@
         <v>54</v>
       </c>
       <c r="F132" s="5">
-        <v>74639.56315155597</v>
+        <v>-44063.98</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -7872,7 +7874,7 @@
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -7888,7 +7890,7 @@
         <v>54</v>
       </c>
       <c r="F135" s="5">
-        <v>149951015.5539861</v>
+        <v>274906358.424</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -7904,7 +7906,7 @@
         <v>54</v>
       </c>
       <c r="F136" s="5">
-        <v>64.85232600000001</v>
+        <v>69.31999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -7948,7 +7950,7 @@
         <v>54</v>
       </c>
       <c r="F139" s="5">
-        <v>2163171.026456811</v>
+        <v>3965758.2</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -7967,7 +7969,7 @@
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -7983,7 +7985,7 @@
         <v>54</v>
       </c>
       <c r="F142" s="5">
-        <v>24072971.5622294</v>
+        <v>4604685.91</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -7999,7 +8001,7 @@
         <v>54</v>
       </c>
       <c r="F143" s="5">
-        <v>15.2361</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -8024,11 +8026,13 @@
         <v>60</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="6"/>
+      <c r="D145" s="5"/>
       <c r="E145" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F145" s="6"/>
+      <c r="F145" s="5">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="2" t="s">
@@ -8043,7 +8047,7 @@
         <v>54</v>
       </c>
       <c r="F146" s="5">
-        <v>1151816.821159302</v>
+        <v>220319.9</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -8062,7 +8066,7 @@
       </c>
       <c r="E148" s="2"/>
       <c r="F148" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -8078,7 +8082,7 @@
         <v>54</v>
       </c>
       <c r="F149" s="5">
-        <v>11167794.36081074</v>
+        <v>14197414.356</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -8094,7 +8098,7 @@
         <v>54</v>
       </c>
       <c r="F150" s="5">
-        <v>54.80622</v>
+        <v>64.44</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -8119,11 +8123,13 @@
         <v>60</v>
       </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="6"/>
+      <c r="D152" s="5"/>
       <c r="E152" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F152" s="6"/>
+      <c r="F152" s="5">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="2" t="s">
@@ -8138,7 +8144,7 @@
         <v>54</v>
       </c>
       <c r="F153" s="5">
-        <v>173305.3128617434</v>
+        <v>220319.9</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -8157,7 +8163,7 @@
       </c>
       <c r="E155" s="2"/>
       <c r="F155" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -8173,7 +8179,7 @@
         <v>54</v>
       </c>
       <c r="F156" s="5">
-        <v>25507892.4008164</v>
+        <v>15727557.24</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -8189,7 +8195,7 @@
         <v>54</v>
       </c>
       <c r="F157" s="5">
-        <v>70.400583</v>
+        <v>58.77</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -8233,7 +8239,7 @@
         <v>54</v>
       </c>
       <c r="F160" s="5">
-        <v>434029.137328848</v>
+        <v>267612</v>
       </c>
     </row>
   </sheetData>
@@ -9396,7 +9402,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -9416,9 +9422,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-      <c r="AC2" s="5">
-        <v>0.04</v>
-      </c>
+      <c r="AC2" s="6"/>
     </row>
     <row r="3" spans="1:29">
       <c r="A3" t="str">
@@ -9437,7 +9441,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="5">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -9457,9 +9461,7 @@
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
       <c r="AB3" s="6"/>
-      <c r="AC3" s="5">
-        <v>0.04</v>
-      </c>
+      <c r="AC3" s="6"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" t="str">
@@ -9475,23 +9477,23 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5">
-        <v>0.024</v>
+        <v>0.8</v>
       </c>
       <c r="H4" s="5">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="5">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="J4" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="5">
-        <v>0.026</v>
+        <v>0.8</v>
       </c>
       <c r="M4" s="5">
-        <v>0.0738</v>
+        <v>0.8</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -9524,23 +9526,23 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="G5" s="5">
-        <v>0.024</v>
+        <v>0.8</v>
       </c>
       <c r="H5" s="5">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="5">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="J5" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="5">
-        <v>0.026</v>
+        <v>0.8</v>
       </c>
       <c r="M5" s="5">
-        <v>0.0738</v>
+        <v>0.8</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -9573,23 +9575,23 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="G6" s="5">
-        <v>0.024</v>
+        <v>0.8</v>
       </c>
       <c r="H6" s="5">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="5">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="J6" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K6" s="5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="5">
-        <v>0.0738</v>
+        <v>0.8</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -9622,23 +9624,23 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="G7" s="5">
-        <v>0.024</v>
+        <v>0.8</v>
       </c>
       <c r="H7" s="5">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="I7" s="5">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="J7" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K7" s="5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5">
-        <v>0.0738</v>
+        <v>0.8</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -9671,23 +9673,23 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="G8" s="5">
-        <v>0.024</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="5">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="5">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="5">
-        <v>0.0738</v>
+        <v>0.8</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -9720,19 +9722,19 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="G9" s="5">
-        <v>0.024</v>
+        <v>0.8</v>
       </c>
       <c r="H9" s="5">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="I9" s="5">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="J9" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K9" s="5">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -9767,16 +9769,16 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="G10" s="5">
-        <v>0.024</v>
+        <v>0.8</v>
       </c>
       <c r="H10" s="5">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="I10" s="5">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="J10" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -9812,16 +9814,16 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="G11" s="5">
-        <v>0.024</v>
+        <v>0.8</v>
       </c>
       <c r="H11" s="5">
-        <v>0.37</v>
+        <v>0.8</v>
       </c>
       <c r="I11" s="5">
-        <v>0.09</v>
+        <v>0.8</v>
       </c>
       <c r="J11" s="5">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -9958,7 +9960,7 @@
         <v>Males 0-14</v>
       </c>
       <c r="B14" s="5">
-        <v>0.03800000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>66</v>
@@ -9999,7 +10001,7 @@
         <v>Females 0-14</v>
       </c>
       <c r="B15" s="5">
-        <v>0.038745</v>
+        <v>0.044</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>66</v>
@@ -10040,7 +10042,7 @@
         <v>Males 15-24</v>
       </c>
       <c r="B16" s="5">
-        <v>0.10125</v>
+        <v>0.225</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>66</v>
@@ -10091,7 +10093,7 @@
         <v>Females 15-24</v>
       </c>
       <c r="B17" s="5">
-        <v>0.08100000000000002</v>
+        <v>0.108</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>66</v>
@@ -10142,7 +10144,7 @@
         <v>Males 25-34</v>
       </c>
       <c r="B18" s="5">
-        <v>0.1719900000000001</v>
+        <v>0.2520000000000001</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>66</v>
@@ -10193,7 +10195,7 @@
         <v>Females 25-34</v>
       </c>
       <c r="B19" s="5">
-        <v>0.11907</v>
+        <v>0.189</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>66</v>
@@ -10244,7 +10246,7 @@
         <v>Males 35-49</v>
       </c>
       <c r="B20" s="5">
-        <v>0.18225</v>
+        <v>0.2835</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>66</v>
@@ -10295,7 +10297,7 @@
         <v>Females 35-49</v>
       </c>
       <c r="B21" s="5">
-        <v>0.111375</v>
+        <v>0.1575</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>66</v>
@@ -10344,7 +10346,7 @@
         <v>Males 50+</v>
       </c>
       <c r="B22" s="5">
-        <v>0.1701</v>
+        <v>0.2520000000000001</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>66</v>
@@ -10391,7 +10393,7 @@
         <v>Females 50+</v>
       </c>
       <c r="B23" s="5">
-        <v>0.09922500000000001</v>
+        <v>0.1575</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>66</v>
@@ -10621,7 +10623,7 @@
         <v>Males 15-24</v>
       </c>
       <c r="B28" s="5">
-        <v>0.09652499999999997</v>
+        <v>0.1575</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>66</v>
@@ -10664,7 +10666,7 @@
         <v>Females 15-24</v>
       </c>
       <c r="B29" s="5">
-        <v>0.07560000000000003</v>
+        <v>0.05850000000000002</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>66</v>
@@ -10707,7 +10709,7 @@
         <v>Males 25-34</v>
       </c>
       <c r="B30" s="5">
-        <v>0.15444</v>
+        <v>0.144</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>66</v>
@@ -10750,7 +10752,7 @@
         <v>Females 25-34</v>
       </c>
       <c r="B31" s="5">
-        <v>0.1215</v>
+        <v>0.108</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>66</v>
@@ -10793,7 +10795,7 @@
         <v>Males 35-49</v>
       </c>
       <c r="B32" s="5">
-        <v>0.173745</v>
+        <v>0.18225</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>66</v>
@@ -10836,7 +10838,7 @@
         <v>Females 35-49</v>
       </c>
       <c r="B33" s="5">
-        <v>0.09449999999999996</v>
+        <v>0.08999999999999998</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>66</v>
@@ -10879,7 +10881,7 @@
         <v>Males 50+</v>
       </c>
       <c r="B34" s="5">
-        <v>0.162</v>
+        <v>0.108</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>66</v>
@@ -10922,7 +10924,7 @@
         <v>Females 50+</v>
       </c>
       <c r="B35" s="5">
-        <v>0.09652499999999996</v>
+        <v>0.07874999999999999</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>66</v>
@@ -11171,13 +11173,13 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S40" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T40" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
@@ -11214,13 +11216,13 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S41" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T41" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
@@ -11257,13 +11259,13 @@
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S42" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T42" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
@@ -11300,13 +11302,13 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S43" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T43" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
@@ -11343,13 +11345,13 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S44" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T44" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -11386,13 +11388,13 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S45" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T45" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
@@ -11429,13 +11431,13 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S46" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T46" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
@@ -11472,13 +11474,13 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="S47" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="T47" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
@@ -11642,7 +11644,7 @@
         <v>Females 0-14</v>
       </c>
       <c r="B51" s="5">
-        <v>0.036</v>
+        <v>0.0351</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>66</v>
@@ -11679,7 +11681,7 @@
         <v>Males 15-24</v>
       </c>
       <c r="B52" s="5">
-        <v>0.09922500000000001</v>
+        <v>0.0945</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>66</v>
@@ -11722,7 +11724,7 @@
         <v>Females 15-24</v>
       </c>
       <c r="B53" s="5">
-        <v>0.07650000000000001</v>
+        <v>0.0756</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>66</v>
@@ -11765,7 +11767,7 @@
         <v>Males 25-34</v>
       </c>
       <c r="B54" s="5">
-        <v>0.1587600000000001</v>
+        <v>0.1512</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>66</v>
@@ -11808,7 +11810,7 @@
         <v>Females 25-34</v>
       </c>
       <c r="B55" s="5">
-        <v>0.11583</v>
+        <v>0.1134</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>66</v>
@@ -11851,7 +11853,7 @@
         <v>Males 35-49</v>
       </c>
       <c r="B56" s="5">
-        <v>0.18225</v>
+        <v>0.1701</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>66</v>
@@ -11894,7 +11896,7 @@
         <v>Females 35-49</v>
       </c>
       <c r="B57" s="5">
-        <v>0.09618750000000001</v>
+        <v>0.0945</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>66</v>
@@ -11937,7 +11939,7 @@
         <v>Males 50+</v>
       </c>
       <c r="B58" s="5">
-        <v>0.15876</v>
+        <v>0.1512</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>66</v>
@@ -11980,7 +11982,7 @@
         <v>Females 50+</v>
       </c>
       <c r="B59" s="5">
-        <v>0.09652499999999996</v>
+        <v>0.0945</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>66</v>
@@ -12132,7 +12134,7 @@
         <v>Males 0-14</v>
       </c>
       <c r="B62" s="5">
-        <v>0.1188</v>
+        <v>0.105</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>66</v>
@@ -12169,7 +12171,7 @@
         <v>Females 0-14</v>
       </c>
       <c r="B63" s="5">
-        <v>0.1188</v>
+        <v>0.105</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>66</v>
@@ -12206,7 +12208,7 @@
         <v>Males 15-24</v>
       </c>
       <c r="B64" s="5">
-        <v>0.1326</v>
+        <v>0.105</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>66</v>
@@ -12245,7 +12247,7 @@
         <v>Females 15-24</v>
       </c>
       <c r="B65" s="5">
-        <v>0.117249</v>
+        <v>0.066</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>66</v>
@@ -12284,7 +12286,7 @@
         <v>Males 25-34</v>
       </c>
       <c r="B66" s="5">
-        <v>0.16146</v>
+        <v>0.105</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>66</v>
@@ -12323,7 +12325,7 @@
         <v>Females 25-34</v>
       </c>
       <c r="B67" s="5">
-        <v>0.14025</v>
+        <v>0.105</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>66</v>
@@ -12362,7 +12364,7 @@
         <v>Males 35-49</v>
       </c>
       <c r="B68" s="5">
-        <v>0.169884</v>
+        <v>0.078</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>66</v>
@@ -12401,7 +12403,7 @@
         <v>Females 35-49</v>
       </c>
       <c r="B69" s="5">
-        <v>0.1296</v>
+        <v>0.105</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>66</v>
@@ -12440,7 +12442,7 @@
         <v>Males 50+</v>
       </c>
       <c r="B70" s="5">
-        <v>0.1734</v>
+        <v>0.105</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>66</v>
@@ -12479,7 +12481,7 @@
         <v>Females 50+</v>
       </c>
       <c r="B71" s="5">
-        <v>0.13068</v>
+        <v>0.105</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>66</v>
@@ -12627,7 +12629,7 @@
         <v>Males 0-14</v>
       </c>
       <c r="B74" s="5">
-        <v>0.03779999999999997</v>
+        <v>0.036</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>66</v>
@@ -12666,7 +12668,7 @@
         <v>Females 0-14</v>
       </c>
       <c r="B75" s="5">
-        <v>0.05399999999999997</v>
+        <v>0.0378</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>66</v>
@@ -12705,7 +12707,7 @@
         <v>Males 15-24</v>
       </c>
       <c r="B76" s="5">
-        <v>0.10395</v>
+        <v>0.108</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>66</v>
@@ -12732,13 +12734,13 @@
       <c r="X76" s="6"/>
       <c r="Y76" s="6"/>
       <c r="Z76" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA76" s="5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AB76" s="5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC76" s="6"/>
     </row>
@@ -12748,7 +12750,7 @@
         <v>Females 15-24</v>
       </c>
       <c r="B77" s="5">
-        <v>0.08399999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>66</v>
@@ -12775,13 +12777,13 @@
       <c r="X77" s="6"/>
       <c r="Y77" s="6"/>
       <c r="Z77" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA77" s="5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AB77" s="5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC77" s="6"/>
     </row>
@@ -12791,7 +12793,7 @@
         <v>Males 25-34</v>
       </c>
       <c r="B78" s="5">
-        <v>0.1889999999999999</v>
+        <v>0.1944</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>66</v>
@@ -12818,13 +12820,13 @@
       <c r="X78" s="6"/>
       <c r="Y78" s="6"/>
       <c r="Z78" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA78" s="5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AB78" s="5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC78" s="6"/>
     </row>
@@ -12834,7 +12836,7 @@
         <v>Females 25-34</v>
       </c>
       <c r="B79" s="5">
-        <v>0.126</v>
+        <v>0.1458</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>66</v>
@@ -12861,13 +12863,13 @@
       <c r="X79" s="6"/>
       <c r="Y79" s="6"/>
       <c r="Z79" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA79" s="5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AB79" s="5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC79" s="6"/>
     </row>
@@ -12877,7 +12879,7 @@
         <v>Males 35-49</v>
       </c>
       <c r="B80" s="5">
-        <v>0.2015999999999999</v>
+        <v>0.20655</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>66</v>
@@ -12904,13 +12906,13 @@
       <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA80" s="5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AB80" s="5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC80" s="6"/>
     </row>
@@ -12920,7 +12922,7 @@
         <v>Females 35-49</v>
       </c>
       <c r="B81" s="5">
-        <v>0.105</v>
+        <v>0.111375</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>66</v>
@@ -12947,13 +12949,13 @@
       <c r="X81" s="6"/>
       <c r="Y81" s="6"/>
       <c r="Z81" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA81" s="5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AB81" s="5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC81" s="6"/>
     </row>
@@ -12963,7 +12965,7 @@
         <v>Males 50+</v>
       </c>
       <c r="B82" s="5">
-        <v>0.1701</v>
+        <v>0.1944</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>66</v>
@@ -12990,13 +12992,13 @@
       <c r="X82" s="6"/>
       <c r="Y82" s="6"/>
       <c r="Z82" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA82" s="5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AB82" s="5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC82" s="6"/>
     </row>
@@ -13006,7 +13008,7 @@
         <v>Females 50+</v>
       </c>
       <c r="B83" s="5">
-        <v>0.09974999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>66</v>
@@ -13033,13 +13035,13 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
       <c r="Z83" s="5">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA83" s="5">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AB83" s="5">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AC83" s="6"/>
     </row>
@@ -13195,7 +13197,7 @@
         <v>Females 0-14</v>
       </c>
       <c r="B87" s="5">
-        <v>0.25515</v>
+        <v>0.225</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>66</v>
@@ -13232,7 +13234,7 @@
         <v>Males 15-24</v>
       </c>
       <c r="B88" s="5">
-        <v>0.84942</v>
+        <v>0.48375</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>66</v>
@@ -13277,7 +13279,7 @@
         <v>Females 15-24</v>
       </c>
       <c r="B89" s="5">
-        <v>0.8494200000000001</v>
+        <v>0.495</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>66</v>
@@ -13322,7 +13324,7 @@
         <v>Males 25-34</v>
       </c>
       <c r="B90" s="5">
-        <v>0.7187399999999998</v>
+        <v>0.495</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>66</v>
@@ -13367,7 +13369,7 @@
         <v>Females 25-34</v>
       </c>
       <c r="B91" s="5">
-        <v>0.92664</v>
+        <v>0.495</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>66</v>
@@ -13412,7 +13414,7 @@
         <v>Males 35-49</v>
       </c>
       <c r="B92" s="5">
-        <v>0.8494200000000001</v>
+        <v>0.495</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>66</v>
@@ -13457,7 +13459,7 @@
         <v>Females 35-49</v>
       </c>
       <c r="B93" s="5">
-        <v>0.8073</v>
+        <v>0.495</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>66</v>
@@ -13502,7 +13504,7 @@
         <v>Males 50+</v>
       </c>
       <c r="B94" s="5">
-        <v>0.7840799999999999</v>
+        <v>0.495</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>66</v>
@@ -13547,7 +13549,7 @@
         <v>Females 50+</v>
       </c>
       <c r="B95" s="5">
-        <v>0.81675</v>
+        <v>0.48375</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>66</v>
@@ -28947,486 +28949,246 @@
       <formula>'Program targeting'!$L$22&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="160">
+  <dataValidations count="80">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C28">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C30">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C33">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D33">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C34">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D34">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D35">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C39">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D39">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D40">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D42">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D43">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D44">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D45">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D46">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C47">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D47">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D50">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D51">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D53">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D54">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D56">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D58">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C59">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D62">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D63">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D64">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D65">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D66">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C67">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D67">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D68">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C69">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D69">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C70">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D70">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C71">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D71">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C74">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D74">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C75">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D75">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D77">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C78">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D78">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D79">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C80">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D80">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C81">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D81">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C82">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D82">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C83">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C86">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D86">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C87">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D87">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D88">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D89">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C90">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D90">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D91">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C92">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D92">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C93">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D93">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C94">
       <formula1>"Random,Additive,Nested"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D94">
-      <formula1>"Synergistic,Best"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C95">
       <formula1>"Random,Additive,Nested"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D95">
-      <formula1>"Synergistic,Best"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
